--- a/5/3/Moneda extranjera 2003 a 2021 - Trimestral.xlsx
+++ b/5/3/Moneda extranjera 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Serie</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1644,6 +1647,20 @@
         <v>29427.43</v>
       </c>
     </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>41591.51</v>
+      </c>
+      <c r="C75">
+        <v>11810.18</v>
+      </c>
+      <c r="D75">
+        <v>29781.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
